--- a/REGULAR/CASUAL-REGULAR FINAL/ASUNCION, YORANDYL ANNLABARDA .xlsx
+++ b/REGULAR/CASUAL-REGULAR FINAL/ASUNCION, YORANDYL ANNLABARDA .xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="6690" yWindow="4290" windowWidth="17280" windowHeight="8970" activeTab="2"/>
+    <workbookView xWindow="6690" yWindow="4290" windowWidth="17280" windowHeight="8970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="51">
   <si>
     <t>PERIOD</t>
   </si>
@@ -181,6 +181,12 @@
   </si>
   <si>
     <t>CSWDO</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1053,7 +1059,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1096,7 +1102,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1160,7 +1166,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1220,7 +1226,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1286,7 +1292,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1349,7 +1355,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1447,7 +1453,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1506,7 +1512,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1577,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1614,7 +1620,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1695,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1875,7 +1881,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1941,7 +1947,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1999,7 +2005,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2065,7 +2071,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2121,7 +2127,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2196,7 +2202,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2239,7 +2245,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2305,7 +2311,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2361,7 +2367,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2459,7 +2465,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2522,7 +2528,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2588,7 +2594,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K132" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K133" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -2966,12 +2972,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K132"/>
+  <dimension ref="A2:K133"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A12" activePane="bottomLeft"/>
       <selection activeCell="F5" sqref="F5"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20:C24"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3136,7 +3142,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.167000000000002</v>
+        <v>18.667000000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3146,7 +3152,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>16.167000000000002</v>
+        <v>18.667000000000002</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -3456,13 +3462,15 @@
         <v>45260</v>
       </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D25" s="39"/>
       <c r="E25" s="9"/>
       <c r="F25" s="20"/>
-      <c r="G25" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G25" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H25" s="39"/>
       <c r="I25" s="9"/>
@@ -3474,13 +3482,15 @@
         <v>45291</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="13"/>
+      <c r="C26" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D26" s="39"/>
       <c r="E26" s="9"/>
       <c r="F26" s="20"/>
-      <c r="G26" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G26" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H26" s="39"/>
       <c r="I26" s="9"/>
@@ -3488,8 +3498,8 @@
       <c r="K26" s="20"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
-        <v>45322</v>
+      <c r="A27" s="51" t="s">
+        <v>49</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -3507,9 +3517,11 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
-        <v>45351</v>
-      </c>
-      <c r="B28" s="20"/>
+        <v>45322</v>
+      </c>
+      <c r="B28" s="20" t="s">
+        <v>50</v>
+      </c>
       <c r="C28" s="13"/>
       <c r="D28" s="39"/>
       <c r="E28" s="9"/>
@@ -3521,11 +3533,13 @@
       <c r="H28" s="39"/>
       <c r="I28" s="9"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="20"/>
+      <c r="K28" s="48">
+        <v>45322</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
-        <v>45382</v>
+        <v>45351</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -3543,7 +3557,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
-        <v>45412</v>
+        <v>45382</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -3561,7 +3575,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
-        <v>45443</v>
+        <v>45412</v>
       </c>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -3579,7 +3593,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
-        <v>45473</v>
+        <v>45443</v>
       </c>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -3597,7 +3611,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
-        <v>45504</v>
+        <v>45473</v>
       </c>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -3615,7 +3629,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
-        <v>45535</v>
+        <v>45504</v>
       </c>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -3633,7 +3647,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
-        <v>45565</v>
+        <v>45535</v>
       </c>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -3651,7 +3665,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
-        <v>45596</v>
+        <v>45565</v>
       </c>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -3669,7 +3683,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
-        <v>45626</v>
+        <v>45596</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -3687,7 +3701,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
-        <v>45657</v>
+        <v>45626</v>
       </c>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -3705,7 +3719,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
-        <v>45688</v>
+        <v>45657</v>
       </c>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -3723,7 +3737,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
-        <v>45716</v>
+        <v>45688</v>
       </c>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -3741,7 +3755,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
-        <v>45747</v>
+        <v>45716</v>
       </c>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -3759,7 +3773,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
-        <v>45777</v>
+        <v>45747</v>
       </c>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -3777,7 +3791,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
-        <v>45808</v>
+        <v>45777</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -3795,7 +3809,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
-        <v>45838</v>
+        <v>45808</v>
       </c>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -3813,7 +3827,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
-        <v>45869</v>
+        <v>45838</v>
       </c>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -3831,7 +3845,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -3849,7 +3863,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
-        <v>45930</v>
+        <v>45900</v>
       </c>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -3867,7 +3881,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
-        <v>45961</v>
+        <v>45930</v>
       </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -3885,7 +3899,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40">
-        <v>45991</v>
+        <v>45961</v>
       </c>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -3903,7 +3917,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
-        <v>46022</v>
+        <v>45991</v>
       </c>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -3921,7 +3935,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
-        <v>46053</v>
+        <v>46022</v>
       </c>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -3939,7 +3953,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
-        <v>46081</v>
+        <v>46053</v>
       </c>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -3957,7 +3971,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
-        <v>46112</v>
+        <v>46081</v>
       </c>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -3975,7 +3989,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
-        <v>46142</v>
+        <v>46112</v>
       </c>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -3993,7 +4007,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
-        <v>46173</v>
+        <v>46142</v>
       </c>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4011,7 +4025,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
-        <v>46203</v>
+        <v>46173</v>
       </c>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4029,7 +4043,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
-        <v>46234</v>
+        <v>46203</v>
       </c>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4046,7 +4060,9 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>46234</v>
+      </c>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
       <c r="D58" s="39"/>
@@ -5214,36 +5230,52 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A131" s="41"/>
-      <c r="B131" s="15"/>
-      <c r="C131" s="42"/>
-      <c r="D131" s="43"/>
+      <c r="A131" s="40"/>
+      <c r="B131" s="20"/>
+      <c r="C131" s="13"/>
+      <c r="D131" s="39"/>
       <c r="E131" s="9"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H131" s="43"/>
+      <c r="F131" s="20"/>
+      <c r="G131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H131" s="39"/>
       <c r="I131" s="9"/>
-      <c r="J131" s="12"/>
-      <c r="K131" s="15"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="41"/>
       <c r="B132" s="15"/>
       <c r="C132" s="42"/>
       <c r="D132" s="43"/>
-      <c r="E132" s="49"/>
+      <c r="E132" s="9"/>
       <c r="F132" s="15"/>
       <c r="G132" s="42" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
       <c r="H132" s="43"/>
-      <c r="I132" s="49"/>
+      <c r="I132" s="9"/>
       <c r="J132" s="12"/>
       <c r="K132" s="15"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133" s="41"/>
+      <c r="B133" s="15"/>
+      <c r="C133" s="42"/>
+      <c r="D133" s="43"/>
+      <c r="E133" s="49"/>
+      <c r="F133" s="15"/>
+      <c r="G133" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H133" s="43"/>
+      <c r="I133" s="49"/>
+      <c r="J133" s="12"/>
+      <c r="K133" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5290,7 +5322,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -5409,7 +5441,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="50">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>32.334000000000003</v>
+        <v>37.334000000000003</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
